--- a/Estructura.xlsx
+++ b/Estructura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Angel\Desktop\TODO\PROGRAMACION\PROYECTOS EN GIT HUB\PANEL DE COLEGIOS\PANEL-PARA-COLEGIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B583FB-51A6-4496-ACC6-3BE95C6764B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC181603-4AED-45EB-B235-11504B4EA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>PARTICIPANTES</t>
   </si>
@@ -450,11 +450,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
@@ -786,14 +786,16 @@
       <c r="G2" s="12">
         <v>45170</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="H2" s="12">
+        <v>45171</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6"/>
@@ -812,10 +814,12 @@
       <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -839,10 +843,12 @@
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -893,10 +899,12 @@
       <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -919,7 +927,9 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2495,7 +2505,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="6"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2538,7 +2548,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="6"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2569,7 +2579,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="6"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">

--- a/Estructura.xlsx
+++ b/Estructura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Angel\Desktop\TODO\PROGRAMACION\PROYECTOS EN GIT HUB\PANEL DE COLEGIOS\PANEL-PARA-COLEGIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC181603-4AED-45EB-B235-11504B4EA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29E5E0-8828-4862-981A-936A91838166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>PARTICIPANTES</t>
   </si>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
@@ -789,7 +789,9 @@
       <c r="H2" s="12">
         <v>45171</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="12">
+        <v>45172</v>
+      </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -820,7 +822,9 @@
       <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
